--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cfp-Ncr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.363151</v>
+        <v>1.725679</v>
       </c>
       <c r="H2">
-        <v>37.089453</v>
+        <v>5.177037</v>
       </c>
       <c r="I2">
-        <v>0.2185801424478743</v>
+        <v>0.06358060230479941</v>
       </c>
       <c r="J2">
-        <v>0.2185801424478742</v>
+        <v>0.06358060230479941</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.264095</v>
+        <v>0.2942353333333333</v>
       </c>
       <c r="N2">
-        <v>0.792285</v>
+        <v>0.882706</v>
       </c>
       <c r="O2">
-        <v>0.6234861111766901</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6234861111766901</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.265046363345</v>
+        <v>0.5077557357913334</v>
       </c>
       <c r="R2">
-        <v>29.385417270105</v>
+        <v>4.569801622122</v>
       </c>
       <c r="S2">
-        <v>0.1362816829952721</v>
+        <v>0.06358060230479941</v>
       </c>
       <c r="T2">
-        <v>0.1362816829952721</v>
+        <v>0.06358060230479941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.363151</v>
+        <v>2.436639333333333</v>
       </c>
       <c r="H3">
-        <v>37.089453</v>
+        <v>7.309918</v>
       </c>
       <c r="I3">
-        <v>0.2185801424478743</v>
+        <v>0.0897750951439394</v>
       </c>
       <c r="J3">
-        <v>0.2185801424478742</v>
+        <v>0.0897750951439394</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.159483</v>
+        <v>0.2942353333333333</v>
       </c>
       <c r="N3">
-        <v>0.478449</v>
+        <v>0.882706</v>
       </c>
       <c r="O3">
-        <v>0.3765138888233099</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3765138888233099</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.971712410933</v>
+        <v>0.7169453864564445</v>
       </c>
       <c r="R3">
-        <v>17.745411698397</v>
+        <v>6.452508478107999</v>
       </c>
       <c r="S3">
-        <v>0.08229845945260218</v>
+        <v>0.0897750951439394</v>
       </c>
       <c r="T3">
-        <v>0.08229845945260217</v>
+        <v>0.0897750951439394</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.436639333333333</v>
+        <v>2.158792</v>
       </c>
       <c r="H4">
-        <v>7.309918</v>
+        <v>6.476376</v>
       </c>
       <c r="I4">
-        <v>0.04307971103597241</v>
+        <v>0.07953813867514323</v>
       </c>
       <c r="J4">
-        <v>0.04307971103597241</v>
+        <v>0.07953813867514324</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.264095</v>
+        <v>0.2942353333333333</v>
       </c>
       <c r="N4">
-        <v>0.792285</v>
+        <v>0.882706</v>
       </c>
       <c r="O4">
-        <v>0.6234861111766901</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6234861111766901</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.6435042647366668</v>
+        <v>0.6351928837173334</v>
       </c>
       <c r="R4">
-        <v>5.79153838263</v>
+        <v>5.716735953456</v>
       </c>
       <c r="S4">
-        <v>0.02685960150443398</v>
+        <v>0.07953813867514323</v>
       </c>
       <c r="T4">
-        <v>0.02685960150443398</v>
+        <v>0.07953813867514324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.436639333333333</v>
+        <v>20.82048533333333</v>
       </c>
       <c r="H5">
-        <v>7.309918</v>
+        <v>62.461456</v>
       </c>
       <c r="I5">
-        <v>0.04307971103597241</v>
+        <v>0.767106163876118</v>
       </c>
       <c r="J5">
-        <v>0.04307971103597241</v>
+        <v>0.767106163876118</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.159483</v>
+        <v>0.2942353333333333</v>
       </c>
       <c r="N5">
-        <v>0.478449</v>
+        <v>0.882706</v>
       </c>
       <c r="O5">
-        <v>0.3765138888233099</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.3765138888233099</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.388602550798</v>
+        <v>6.126122442215111</v>
       </c>
       <c r="R5">
-        <v>3.497422957182</v>
+        <v>55.135101979936</v>
       </c>
       <c r="S5">
-        <v>0.01622010953153843</v>
+        <v>0.767106163876118</v>
       </c>
       <c r="T5">
-        <v>0.01622010953153843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.408324</v>
-      </c>
-      <c r="H6">
-        <v>7.224972</v>
-      </c>
-      <c r="I6">
-        <v>0.04257909678371107</v>
-      </c>
-      <c r="J6">
-        <v>0.04257909678371107</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.264095</v>
-      </c>
-      <c r="N6">
-        <v>0.792285</v>
-      </c>
-      <c r="O6">
-        <v>0.6234861111766901</v>
-      </c>
-      <c r="P6">
-        <v>0.6234861111766901</v>
-      </c>
-      <c r="Q6">
-        <v>0.63602632678</v>
-      </c>
-      <c r="R6">
-        <v>5.72423694102</v>
-      </c>
-      <c r="S6">
-        <v>0.02654747547109193</v>
-      </c>
-      <c r="T6">
-        <v>0.02654747547109193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.408324</v>
-      </c>
-      <c r="H7">
-        <v>7.224972</v>
-      </c>
-      <c r="I7">
-        <v>0.04257909678371107</v>
-      </c>
-      <c r="J7">
-        <v>0.04257909678371107</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.159483</v>
-      </c>
-      <c r="N7">
-        <v>0.478449</v>
-      </c>
-      <c r="O7">
-        <v>0.3765138888233099</v>
-      </c>
-      <c r="P7">
-        <v>0.3765138888233099</v>
-      </c>
-      <c r="Q7">
-        <v>0.3840867364919999</v>
-      </c>
-      <c r="R7">
-        <v>3.456780628428</v>
-      </c>
-      <c r="S7">
-        <v>0.01603162131261915</v>
-      </c>
-      <c r="T7">
-        <v>0.01603162131261915</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>39.35306666666667</v>
-      </c>
-      <c r="H8">
-        <v>118.0592</v>
-      </c>
-      <c r="I8">
-        <v>0.6957610497324422</v>
-      </c>
-      <c r="J8">
-        <v>0.6957610497324422</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.264095</v>
-      </c>
-      <c r="N8">
-        <v>0.792285</v>
-      </c>
-      <c r="O8">
-        <v>0.6234861111766901</v>
-      </c>
-      <c r="P8">
-        <v>0.6234861111766901</v>
-      </c>
-      <c r="Q8">
-        <v>10.39294814133333</v>
-      </c>
-      <c r="R8">
-        <v>93.536533272</v>
-      </c>
-      <c r="S8">
-        <v>0.4337973512058921</v>
-      </c>
-      <c r="T8">
-        <v>0.4337973512058921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>39.35306666666667</v>
-      </c>
-      <c r="H9">
-        <v>118.0592</v>
-      </c>
-      <c r="I9">
-        <v>0.6957610497324422</v>
-      </c>
-      <c r="J9">
-        <v>0.6957610497324422</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.159483</v>
-      </c>
-      <c r="N9">
-        <v>0.478449</v>
-      </c>
-      <c r="O9">
-        <v>0.3765138888233099</v>
-      </c>
-      <c r="P9">
-        <v>0.3765138888233099</v>
-      </c>
-      <c r="Q9">
-        <v>6.2761451312</v>
-      </c>
-      <c r="R9">
-        <v>56.48530618079999</v>
-      </c>
-      <c r="S9">
-        <v>0.2619636985265502</v>
-      </c>
-      <c r="T9">
-        <v>0.2619636985265502</v>
+        <v>0.767106163876118</v>
       </c>
     </row>
   </sheetData>
